--- a/medicine/Enfance/Mary_Chase/Mary_Chase.xlsx
+++ b/medicine/Enfance/Mary_Chase/Mary_Chase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mary Chase (Denver, 25 février 1906 - 20 octobre 1981) est une journaliste, dramaturge et auteur de contes pour enfants américaine. 
 Elle a écrit une quarantaine de pièces de théâtre, deux contes pour enfants, et a travaillé trente ans au Rocky Mountain News.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'une de ses pièces les plus connues est Harvey. Elle a été jouée au 48th Street Theatre à Broadway de 1944 à 1949 (avec Josephine Hull et Jesse White), puis en 1970 (avec James Stewart et Jesse White). Elle est également adaptée plusieurs fois au cinéma et à la télévision (en 1950, 1972, 1985 et 1998).
 Deux autres de ses pièces ont été adaptées en film : Sorority House (1939) et Bernardine (1957).
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pièces de théâtre
-Me Third (1936)
+          <t>Pièces de théâtre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Me Third (1936)
 Sorority House (1938)
 Slip of a Girl (1941)
 Harvey (1944)
@@ -560,9 +579,43 @@
 The Dog Sitters (1963)
 Mickey (1969)
 Cocktails With Mimi (1974)
-The Terrible Tattoo Parlor (1981)
-Contes pour enfants
-Loretta Mason Potts (1958)
+The Terrible Tattoo Parlor (1981)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mary_Chase</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mary_Chase</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Contes pour enfants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Loretta Mason Potts (1958)
 The Wicked, Wicked Ladies In the Haunted House (1968)</t>
         </is>
       </c>
